--- a/Kg_A.xlsx
+++ b/Kg_A.xlsx
@@ -1,37 +1,90 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="15">
+  <si>
+    <t>M/c No.</t>
+  </si>
+  <si>
+    <t>Count and Material</t>
+  </si>
+  <si>
+    <t>AEF %</t>
+  </si>
+  <si>
+    <t>Ukg</t>
+  </si>
+  <si>
+    <t>Total M/c Stop time</t>
+  </si>
+  <si>
+    <t>doffs</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>m/min</t>
+  </si>
+  <si>
+    <t>8.0 lbs-8/1 lbs CRT</t>
+  </si>
+  <si>
+    <t>13.0 lbs-13/1 lbs CRT</t>
+  </si>
+  <si>
+    <t>16.0 lbs-16/1 CRT</t>
+  </si>
+  <si>
+    <t>20.0 lbs-20/1 lbs CRT</t>
+  </si>
+  <si>
+    <t>18.0 lbs-18/1 CRT</t>
+  </si>
+  <si>
+    <t>8.0 lbs-8/1 lbs CRX</t>
+  </si>
+  <si>
+    <t>Avg. Count : 0.91 lbs</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +99,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,87 +415,871 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>M/c No.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Count and Material</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>V ry</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Power Factor</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Curr_R</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>min/doff</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Frequency (Hz)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>kW</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>doff min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>doffs</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>m/min</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>stop min</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>kWh</t>
-        </is>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>3.21</v>
+      </c>
+      <c r="D3">
+        <v>0.28</v>
+      </c>
+      <c r="E3">
+        <v>328.5</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>8.529999999999999</v>
+      </c>
+      <c r="H3">
+        <v>25.47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>340.6</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>327.4</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>-1.99</v>
+      </c>
+      <c r="H5">
+        <v>24.13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>328.2</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>-3.18</v>
+      </c>
+      <c r="H6">
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>327.8</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>-2.64</v>
+      </c>
+      <c r="H7">
+        <v>25.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>0.61</v>
+      </c>
+      <c r="D8">
+        <v>1.31</v>
+      </c>
+      <c r="E8">
+        <v>316.7</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.55</v>
+      </c>
+      <c r="H8">
+        <v>24.73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>6.53</v>
+      </c>
+      <c r="D9">
+        <v>0.27</v>
+      </c>
+      <c r="E9">
+        <v>308.7</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>27.94</v>
+      </c>
+      <c r="H9">
+        <v>25.32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>6.44</v>
+      </c>
+      <c r="D10">
+        <v>0.2</v>
+      </c>
+      <c r="E10">
+        <v>315.9</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>27.97</v>
+      </c>
+      <c r="H10">
+        <v>25.48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>5.97</v>
+      </c>
+      <c r="D11">
+        <v>0.17</v>
+      </c>
+      <c r="E11">
+        <v>319.7</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>32.19</v>
+      </c>
+      <c r="H11">
+        <v>25.83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>5.57</v>
+      </c>
+      <c r="D12">
+        <v>0.16</v>
+      </c>
+      <c r="E12">
+        <v>319.7</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>30.98</v>
+      </c>
+      <c r="H12">
+        <v>26.69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>341.3</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>341.1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>68.41</v>
+      </c>
+      <c r="D15">
+        <v>0.11</v>
+      </c>
+      <c r="E15">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="F15">
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <v>492.38</v>
+      </c>
+      <c r="H15">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>71</v>
+      </c>
+      <c r="D16">
+        <v>0.11</v>
+      </c>
+      <c r="E16">
+        <v>85.7</v>
+      </c>
+      <c r="F16">
+        <v>9</v>
+      </c>
+      <c r="G16">
+        <v>507.53</v>
+      </c>
+      <c r="H16">
+        <v>27.49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>2.64</v>
+      </c>
+      <c r="D17">
+        <v>0.13</v>
+      </c>
+      <c r="E17">
+        <v>330.1</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>19.26</v>
+      </c>
+      <c r="H17">
+        <v>28.04</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>2.62</v>
+      </c>
+      <c r="D18">
+        <v>0.15</v>
+      </c>
+      <c r="E18">
+        <v>331.3</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>18.77</v>
+      </c>
+      <c r="H18">
+        <v>27.52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>5.37</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>320.7</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>38.65</v>
+      </c>
+      <c r="H19">
+        <v>27.62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>5.21</v>
+      </c>
+      <c r="D20">
+        <v>0.12</v>
+      </c>
+      <c r="E20">
+        <v>319.7</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>38.36</v>
+      </c>
+      <c r="H20">
+        <v>28.32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>2.27</v>
+      </c>
+      <c r="D21">
+        <v>0.12</v>
+      </c>
+      <c r="E21">
+        <v>332</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>16.82</v>
+      </c>
+      <c r="H21">
+        <v>28.46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>2.83</v>
+      </c>
+      <c r="D22">
+        <v>0.11</v>
+      </c>
+      <c r="E22">
+        <v>330.5</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>20.93</v>
+      </c>
+      <c r="H22">
+        <v>28.33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>1.73</v>
+      </c>
+      <c r="D23">
+        <v>0.28</v>
+      </c>
+      <c r="E23">
+        <v>312.5</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>12.97</v>
+      </c>
+      <c r="H23">
+        <v>28.74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <v>2.81</v>
+      </c>
+      <c r="D24">
+        <v>0.14</v>
+      </c>
+      <c r="E24">
+        <v>331.8</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>17.16</v>
+      </c>
+      <c r="H24">
+        <v>26.06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>2.69</v>
+      </c>
+      <c r="D25">
+        <v>0.15</v>
+      </c>
+      <c r="E25">
+        <v>330.9</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>16.23</v>
+      </c>
+      <c r="H25">
+        <v>25.84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>3.24</v>
+      </c>
+      <c r="D26">
+        <v>0.11</v>
+      </c>
+      <c r="E26">
+        <v>328.4</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>19.71</v>
+      </c>
+      <c r="H26">
+        <v>26.01</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>339.6</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>340.6</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>5.38</v>
+      </c>
+      <c r="D29">
+        <v>0.21</v>
+      </c>
+      <c r="E29">
+        <v>312.2</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>28.32</v>
+      </c>
+      <c r="H29">
+        <v>25.35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>339.8</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>4.15</v>
+      </c>
+      <c r="D31">
+        <v>0.2</v>
+      </c>
+      <c r="E31">
+        <v>318.2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>22.6</v>
+      </c>
+      <c r="H31">
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>6.56</v>
+      </c>
+      <c r="D32">
+        <v>0.19</v>
+      </c>
+      <c r="E32">
+        <v>307.8</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>36.24</v>
+      </c>
+      <c r="H32">
+        <v>26.57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>339.9</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>339.5</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35">
+        <v>6.67</v>
+      </c>
+      <c r="D35">
+        <v>0.13</v>
+      </c>
+      <c r="E35">
+        <v>10005.4</v>
+      </c>
+      <c r="F35">
+        <v>28</v>
+      </c>
+      <c r="G35">
+        <v>1428.28</v>
+      </c>
+      <c r="H35">
+        <v>19.92</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>